--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>97.87</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.71</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5794</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.11</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +1086,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5.12</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="4">
@@ -1007,14 +1102,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="5">
@@ -1023,13 +1118,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1181,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3.11</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="4">
@@ -1102,14 +1197,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5.12</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="5">
@@ -1118,14 +1213,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.1</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="6">
@@ -1134,13 +1229,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1276,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1292,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.11</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="5">
@@ -1213,14 +1308,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5.12</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="6">
@@ -1229,14 +1324,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.1</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="7">
@@ -1245,13 +1340,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7619</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -612,64 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>98.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0873</t>
+          <t>2.1110</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>585001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东吴中证新兴</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -744,102 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>99.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9120</t>
+          <t>2.1624</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000118</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚鑫债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>168.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0188</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000119</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发聚鑫债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1879</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -914,26 +854,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>74.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>99.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1134</t>
+          <t>2.5794</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +908,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1008,26 +948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>80.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5794</t>
+          <t>3.1134</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1062,7 +1002,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1102,26 +1042,102 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.71</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1624</t>
+          <t>2.9120</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,7 +1172,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1196,26 +1212,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>85.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.84</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1110</t>
+          <t>3.0873</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1229,144 +1283,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.76</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.11</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.11</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5.12</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3.1</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.76</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>63.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.84</t>
+          <t>98.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1110</t>
+          <t>1.8551</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -760,22 +777,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.71</t>
+          <t>98.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1624</t>
+          <t>2.1110</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -854,26 +871,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>99.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5794</t>
+          <t>2.1624</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +925,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -948,26 +965,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>74.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>99.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1134</t>
+          <t>2.5794</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -976,6 +993,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1145,7 +1256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1277,7 +1388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/601727-上海电气.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.11</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3.11</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5.12</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>3.1</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +794,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.53</t>
+          <t>65.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.46</t>
+          <t>98.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8551</t>
+          <t>1.9307</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -777,22 +888,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>63.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.84</t>
+          <t>98.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1110</t>
+          <t>1.8551</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -871,22 +982,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.71</t>
+          <t>98.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1624</t>
+          <t>2.1110</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -965,26 +1076,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>99.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5794</t>
+          <t>2.1624</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1130,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1059,26 +1170,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>74.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>99.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1134</t>
+          <t>2.5794</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1087,6 +1198,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1256,7 +1461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1386,98 +1591,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7619</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>